--- a/Result/02-11-24/NASDAQstock_02-11-24period252RS90.xlsx
+++ b/Result/02-11-24/NASDAQstock_02-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/02-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1DC8F6-0361-EF48-B91F-3871354CAFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD256BE-5DC7-4D44-8BA4-EB035FCFD5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Result/02-11-24/NASDAQstock_02-11-24period252RS90.xlsx
+++ b/Result/02-11-24/NASDAQstock_02-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/02-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD256BE-5DC7-4D44-8BA4-EB035FCFD5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A9B3A-1529-C042-A7DF-82C81442F89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
